--- a/RiskRegister_withExampleRisk.xlsx
+++ b/RiskRegister_withExampleRisk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy Ramirez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffaa5fcd33f076d1/Documents/GitHub/Project_ECEN3753_HarkonnenPong_Week1/Project_ECEN3753_HarkonnenPong_Tommy_Ramirez/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF9845B-7F7B-424F-8734-440029EADD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B79663-22B9-4BA4-8CDD-D8C7ADA278E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="1980" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Item</t>
   </si>
@@ -53,34 +53,52 @@
     <t>ROAM</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Risk (P*I)</t>
+  </si>
+  <si>
+    <t>Valid Modified Fibonacci values</t>
+  </si>
+  <si>
+    <t>I will too long to figure out the LCD screen</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Test with other slider code if time is available</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Got help and clarification on the basics from a TA</t>
+  </si>
+  <si>
+    <t>PWM is too slow to change brightness</t>
+  </si>
+  <si>
+    <t>Mitigated</t>
+  </si>
+  <si>
+    <t>Changes in PWM can't be recognized/decoded</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Risk (P*I)</t>
-  </si>
-  <si>
-    <t>Valid Modified Fibonacci values</t>
-  </si>
-  <si>
-    <t>I will too long to figure out the LCD screen</t>
-  </si>
-  <si>
-    <t>My slider is not working</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Ask for help from TAs or peers who can use the LCD</t>
-  </si>
-  <si>
-    <t>Test with other slider code if time is available</t>
+    <t>See if there is a faster timer</t>
+  </si>
+  <si>
+    <t>Use own judgement for which PWMs are distinct enough</t>
+  </si>
+  <si>
+    <t>My slider is sticking after some time operating</t>
   </si>
 </sst>
 </file>
@@ -257,10 +275,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -272,10 +296,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,7 +1523,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,7 +1535,7 @@
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="8" max="8" width="51.28515625" customWidth="1"/>
     <col min="9" max="9" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1514,13 +1544,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>1</v>
@@ -1539,24 +1569,26 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" si="0">B2*C2</f>
-        <v>520</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>44210</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>44631</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1564,7 +1596,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
@@ -1577,31 +1609,65 @@
         <v>910</v>
       </c>
       <c r="E3" s="2">
-        <v>44210</v>
+        <v>44631</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
       <c r="D4" s="1">
         <f>B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44635</v>
+      </c>
       <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44637</v>
+      </c>
       <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
@@ -1682,7 +1748,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
